--- a/media/excel/2020/TT2/Others.xlsx
+++ b/media/excel/2020/TT2/Others.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>SAP ID</t>
   </si>
@@ -37,7 +37,34 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Evaluated</t>
+  </si>
+  <si>
     <t>001</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>009</t>
   </si>
 </sst>
 </file>
@@ -414,14 +441,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="8" width="15" customWidth="1"/>
+    <col min="2" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,10 +473,13 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -464,13 +494,190 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>3.52</v>
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
